--- a/Backend/Model Metrics/classification_report_rfc_Part2_vent.xlsx
+++ b/Backend/Model Metrics/classification_report_rfc_Part2_vent.xlsx
@@ -462,16 +462,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8425925925925926</v>
+        <v>0.9504814305364512</v>
       </c>
       <c r="C2" t="n">
-        <v>0.900990099009901</v>
+        <v>0.8680904522613065</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8708133971291866</v>
+        <v>0.9074195666447801</v>
       </c>
       <c r="E2" t="n">
-        <v>202</v>
+        <v>796</v>
       </c>
     </row>
     <row r="3">
@@ -481,13 +481,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8936170212765957</v>
+        <v>0.6125461254612546</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8316831683168316</v>
+        <v>0.8217821782178217</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8615384615384615</v>
+        <v>0.7019027484143764</v>
       </c>
       <c r="E3" t="n">
         <v>202</v>
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8663366336633663</v>
+        <v>0.8587174348697395</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8663366336633663</v>
+        <v>0.8587174348697395</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8663366336633663</v>
+        <v>0.8587174348697395</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8663366336633663</v>
+        <v>0.8587174348697395</v>
       </c>
     </row>
     <row r="5">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8681048069345941</v>
+        <v>0.7815137779988529</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8663366336633663</v>
+        <v>0.8449363152395641</v>
       </c>
       <c r="D5" t="n">
-        <v>0.866175929333824</v>
+        <v>0.8046611575295782</v>
       </c>
       <c r="E5" t="n">
-        <v>404</v>
+        <v>998</v>
       </c>
     </row>
     <row r="6">
@@ -538,16 +538,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8681048069345941</v>
+        <v>0.8820816994490868</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8663366336633663</v>
+        <v>0.8587174348697395</v>
       </c>
       <c r="D6" t="n">
-        <v>0.866175929333824</v>
+        <v>0.8658219741773036</v>
       </c>
       <c r="E6" t="n">
-        <v>404</v>
+        <v>998</v>
       </c>
     </row>
   </sheetData>
